--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,34 +43,28 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
@@ -79,67 +73,76 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,49 +619,49 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7207792207792207</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C5">
         <v>111</v>
@@ -684,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,245 +737,149 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8303571428571429</v>
+      </c>
+      <c r="L6">
+        <v>93</v>
+      </c>
+      <c r="M6">
+        <v>93</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L7">
+        <v>37</v>
+      </c>
+      <c r="M7">
+        <v>37</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L8">
+        <v>65</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>0.7890625</v>
+      </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
+      <c r="M9">
+        <v>101</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C7">
-        <v>82</v>
-      </c>
-      <c r="D7">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>151</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
+      <c r="K10">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>62</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2375</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
-        <v>46</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.6875</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1062,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,47 +1047,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>22</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6438356164383562</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5666666666666667</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1218,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5600000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1244,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5164319248826291</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1270,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1296,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4961240310077519</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1348,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4930555555555556</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L26">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="M26">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1374,33 +1281,163 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3598326359832636</v>
+      </c>
+      <c r="L29">
+        <v>86</v>
+      </c>
+      <c r="M29">
+        <v>86</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.04138702460850112</v>
+      </c>
+      <c r="L30">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>37</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K27">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>18</v>
+      <c r="K31">
+        <v>0.01261682242990654</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.01127577319587629</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>0.92</v>
+      </c>
+      <c r="O32">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3069</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -61,48 +64,48 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -112,25 +115,25 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -508,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2151162790697674</v>
+        <v>0.1996124031007752</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8611111111111112</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -719,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1904761904761905</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,71 +740,95 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="M6">
+        <v>94</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L7">
+        <v>66</v>
+      </c>
+      <c r="M7">
+        <v>66</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.8303571428571429</v>
-      </c>
-      <c r="L6">
-        <v>93</v>
-      </c>
-      <c r="M6">
-        <v>93</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0.8043478260869565</v>
-      </c>
-      <c r="L7">
-        <v>37</v>
-      </c>
-      <c r="M7">
-        <v>37</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7926829268292683</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,21 +840,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,12 +866,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>0.7758620689655172</v>
@@ -870,16 +897,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7535211267605634</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,12 +918,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.75</v>
@@ -922,16 +949,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6875</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,21 +996,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6698113207547169</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -995,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6507936507936508</v>
+        <v>0.66</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1073,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6276595744680851</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1125,12 +1152,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
         <v>0.5625</v>
@@ -1156,16 +1183,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5056179775280899</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1177,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5013054830287206</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L23">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>191</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4923076923076923</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1229,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4779661016949153</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L25">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M25">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1255,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4735294117647059</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4520547945205479</v>
+        <v>0.390625</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1307,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.3846153846153846</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1333,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3598326359832636</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1359,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.04138702460850112</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1385,59 +1412,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.01261682242990654</v>
+        <v>0.01356407857811038</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N31">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O31">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.01127577319587629</v>
+        <v>0.008376288659793814</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>3069</v>
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
